--- a/DRE/IPT_ACRM_DRE_Indice_150422.xlsx
+++ b/DRE/IPT_ACRM_DRE_Indice_150422.xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_Toc414021862" localSheetId="0">Indice!$C$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Cuando se establecen probabilidades en una oferta, deberia aparecer: (i) la probabilidad historica de conversión esa cuenta y (ii) probabilidad histórica historica del KAM</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Introducir y asociar las noticias diarias a sus respectivas empresas</t>
   </si>
   <si>
-    <t>Bases de Datos</t>
-  </si>
-  <si>
     <t>SAP</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>Independencia en futuros desarrollos</t>
   </si>
   <si>
-    <t>Como garantizar la calidad y limpieza en los datos del las BDs</t>
-  </si>
-  <si>
     <t>Definición y tipologia de usuarios</t>
   </si>
   <si>
@@ -709,21 +703,9 @@
     <t>Marketing (Mkt)</t>
   </si>
   <si>
-    <t>BD6 - Noticias (News)</t>
-  </si>
-  <si>
-    <t>BD8 - Price Benchmark</t>
-  </si>
-  <si>
     <t>BD11 - Staff</t>
   </si>
   <si>
-    <t>BD12 - Companies Relationships</t>
-  </si>
-  <si>
-    <t>Tablas Maestras</t>
-  </si>
-  <si>
     <t>Logística</t>
   </si>
   <si>
@@ -745,12 +727,6 @@
     <t>Workflows</t>
   </si>
   <si>
-    <t>Tareas Automáticas</t>
-  </si>
-  <si>
-    <t>BD13 - Strategy and Forecast</t>
-  </si>
-  <si>
     <t>Solicitar costes de productos y servicios (VTA.030.60)</t>
   </si>
   <si>
@@ -772,9 +748,6 @@
     <t>Gestión de usuarios CRM (procedimiento para dar de alta/baja a un usuario)</t>
   </si>
   <si>
-    <t>Gestión de cuentas BD 1 - Companies</t>
-  </si>
-  <si>
     <t>Solicitar eliminación/alta/modificación</t>
   </si>
   <si>
@@ -793,12 +766,6 @@
     <t>Gestión de incidencias</t>
   </si>
   <si>
-    <t xml:space="preserve">BD4 - </t>
-  </si>
-  <si>
-    <t>BD14 - Solicitudes de Plazos</t>
-  </si>
-  <si>
     <t>Breve presentación de la corporación Ingeteam, la division Energy y la unidad de negocio Fotovoltaica</t>
   </si>
   <si>
@@ -812,6 +779,60 @@
   </si>
   <si>
     <t>Solicitar requerimientos legales (VTA.030.65)</t>
+  </si>
+  <si>
+    <t>Gestión de cuentas BD1 - Companies</t>
+  </si>
+  <si>
+    <t>Tareas automáticas</t>
+  </si>
+  <si>
+    <t>Bases de datos</t>
+  </si>
+  <si>
+    <t>BD14 - Solicitudes de plazos de entrega</t>
+  </si>
+  <si>
+    <t>BD13 - Strategy and forecast</t>
+  </si>
+  <si>
+    <t>BD12 - Companies relationships</t>
+  </si>
+  <si>
+    <t>BD8 - Price benchmark</t>
+  </si>
+  <si>
+    <t>BD6 - Noticias (news)</t>
+  </si>
+  <si>
+    <t>BD4 - TBD</t>
+  </si>
+  <si>
+    <t>BD10 - TBD</t>
+  </si>
+  <si>
+    <t>BD15 - Solicitar costes de productos y servicios (VTA.030.60)</t>
+  </si>
+  <si>
+    <t>BD16 - Solicitudes de ayuda técnica (VTA.030.55)</t>
+  </si>
+  <si>
+    <t>BD17 - Solicitudes de precio especial (VTA.030.40)</t>
+  </si>
+  <si>
+    <t>BD18 - Solicitudes de crédito (VTA.030.50)</t>
+  </si>
+  <si>
+    <t>BD19 - Solicitudes de requerimientos legales (VTA.030.65)</t>
+  </si>
+  <si>
+    <t>BD20 - Solicitudes de ayuda logística (VTA.030.70)</t>
+  </si>
+  <si>
+    <t>Tablas maestras de validación</t>
+  </si>
+  <si>
+    <t>Como garantizar la calidad y limpieza en los datos</t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1447,8 @@
   </sheetPr>
   <dimension ref="A1:AI190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
@@ -1456,83 +1477,83 @@
         <v>3</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="W1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="AB1" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC1" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="AD1" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>196</v>
-      </c>
       <c r="AF1" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -1549,21 +1570,21 @@
         <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="7"/>
       <c r="J3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
@@ -1587,13 +1608,13 @@
       <c r="AF3" s="18"/>
       <c r="AG3" s="18"/>
       <c r="AI3" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="12">
@@ -1632,7 +1653,7 @@
     <row r="5" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="12">
@@ -1671,7 +1692,7 @@
     <row r="6" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="12">
@@ -1710,7 +1731,7 @@
     <row r="7" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="12">
@@ -1751,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
@@ -1760,21 +1781,21 @@
         <v>4.5</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="7"/>
       <c r="J8" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
@@ -1802,7 +1823,7 @@
     <row r="9" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="12">
@@ -1837,13 +1858,13 @@
       <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
       <c r="AI9" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="32" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="12">
@@ -1878,13 +1899,13 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AI10" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
       <c r="C11" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="12">
@@ -1919,14 +1940,14 @@
       <c r="AF11" s="18"/>
       <c r="AG11" s="18"/>
       <c r="AI11" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="12">
@@ -1962,7 +1983,7 @@
       <c r="AG12" s="19"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -1970,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="37"/>
@@ -1979,21 +2000,21 @@
         <v>4</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="6"/>
       <c r="J13" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -2023,7 +2044,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="31"/>
       <c r="C14" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="12">
@@ -2059,14 +2080,14 @@
       <c r="AG14" s="19"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="31"/>
       <c r="C15" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="12">
@@ -2102,14 +2123,14 @@
       <c r="AG15" s="19"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="12">
@@ -2145,7 +2166,7 @@
       <c r="AG16" s="19"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2153,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="37"/>
@@ -2162,21 +2183,21 @@
         <v>3</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="6"/>
       <c r="J17" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -2201,14 +2222,14 @@
       <c r="AG17" s="19"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="12">
@@ -2244,14 +2265,14 @@
       <c r="AG18" s="19"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="31"/>
       <c r="C19" s="32" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="12"/>
@@ -2291,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
@@ -2300,21 +2321,21 @@
         <v>15</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
@@ -2338,13 +2359,13 @@
       <c r="AF20" s="18"/>
       <c r="AG20" s="18"/>
       <c r="AI20" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
       <c r="C21" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="12">
@@ -2355,7 +2376,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="7"/>
       <c r="J21" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -2364,16 +2385,16 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R21" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S21" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
@@ -2393,7 +2414,7 @@
     <row r="22" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
       <c r="C22" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="12">
@@ -2404,21 +2425,21 @@
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
@@ -2442,7 +2463,7 @@
     <row r="23" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
       <c r="C23" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="12">
@@ -2453,7 +2474,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -2483,7 +2504,7 @@
     <row r="24" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="12">
@@ -2494,7 +2515,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -2507,7 +2528,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
       <c r="U24" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
@@ -2526,7 +2547,7 @@
     <row r="25" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="12">
@@ -2537,7 +2558,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -2558,7 +2579,7 @@
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
       <c r="AC25" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
@@ -2569,7 +2590,7 @@
     <row r="26" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="12">
@@ -2580,7 +2601,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -2601,7 +2622,7 @@
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
       <c r="AC26" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" s="18"/>
       <c r="AE26" s="18"/>
@@ -2612,7 +2633,7 @@
     <row r="27" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="12">
@@ -2623,7 +2644,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="7"/>
       <c r="J27" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -2644,7 +2665,7 @@
       <c r="AA27" s="18"/>
       <c r="AB27" s="18"/>
       <c r="AC27" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD27" s="18"/>
       <c r="AE27" s="18"/>
@@ -2655,7 +2676,7 @@
     <row r="28" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="12">
@@ -2666,7 +2687,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -2687,7 +2708,7 @@
       <c r="AA28" s="18"/>
       <c r="AB28" s="18"/>
       <c r="AC28" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD28" s="18"/>
       <c r="AE28" s="18"/>
@@ -2698,7 +2719,7 @@
     <row r="29" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="12">
@@ -2709,7 +2730,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="7"/>
       <c r="J29" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -2725,10 +2746,10 @@
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y29" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
@@ -2743,7 +2764,7 @@
     <row r="30" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="12">
@@ -2754,7 +2775,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="7"/>
       <c r="J30" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -2770,10 +2791,10 @@
       <c r="V30" s="18"/>
       <c r="W30" s="18"/>
       <c r="X30" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y30" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
@@ -2788,7 +2809,7 @@
     <row r="31" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="12">
@@ -2799,7 +2820,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -2822,7 +2843,7 @@
       <c r="AC31" s="18"/>
       <c r="AD31" s="18"/>
       <c r="AE31" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF31" s="20"/>
       <c r="AG31" s="18"/>
@@ -2831,7 +2852,7 @@
     <row r="32" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="12">
@@ -2842,7 +2863,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -2862,7 +2883,7 @@
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
       <c r="AB32" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC32" s="18"/>
       <c r="AD32" s="18"/>
@@ -2870,13 +2891,13 @@
       <c r="AF32" s="18"/>
       <c r="AG32" s="18"/>
       <c r="AI32" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="12">
@@ -2887,7 +2908,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -2907,7 +2928,7 @@
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
       <c r="AB33" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
@@ -2915,13 +2936,13 @@
       <c r="AF33" s="18"/>
       <c r="AG33" s="18"/>
       <c r="AI33" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="12">
@@ -2932,7 +2953,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="7"/>
       <c r="J34" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -2955,7 +2976,7 @@
       <c r="AC34" s="18"/>
       <c r="AD34" s="18"/>
       <c r="AE34" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF34" s="20"/>
       <c r="AG34" s="18"/>
@@ -2964,7 +2985,7 @@
     <row r="35" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="12">
@@ -2975,14 +2996,14 @@
       <c r="H35" s="12"/>
       <c r="I35" s="7"/>
       <c r="J35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
@@ -2990,22 +3011,22 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
       <c r="Y35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z35" s="18"/>
       <c r="AA35" s="18"/>
       <c r="AB35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
@@ -3019,7 +3040,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="33"/>
@@ -3028,21 +3049,21 @@
         <v>38</v>
       </c>
       <c r="F36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="7"/>
       <c r="J36" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
@@ -3066,7 +3087,7 @@
       <c r="AF36" s="18"/>
       <c r="AG36" s="18"/>
       <c r="AI36" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3114,7 +3135,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="12"/>
@@ -3153,7 +3174,7 @@
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -3190,7 +3211,7 @@
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -3227,7 +3248,7 @@
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E41" s="12">
         <v>2</v>
@@ -3266,7 +3287,7 @@
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E42" s="12">
         <v>1</v>
@@ -3305,7 +3326,7 @@
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E43" s="12">
         <v>1</v>
@@ -3344,7 +3365,7 @@
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E44" s="12">
         <v>2</v>
@@ -3378,14 +3399,14 @@
       <c r="AF44" s="18"/>
       <c r="AG44" s="18"/>
       <c r="AI44" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E45" s="12">
         <v>2</v>
@@ -3419,14 +3440,14 @@
       <c r="AF45" s="18"/>
       <c r="AG45" s="18"/>
       <c r="AI45" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E46" s="12">
         <v>2</v>
@@ -3460,14 +3481,14 @@
       <c r="AF46" s="18"/>
       <c r="AG46" s="18"/>
       <c r="AI46" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E47" s="12">
         <v>2</v>
@@ -3505,7 +3526,7 @@
     <row r="48" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
       <c r="C48" s="32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D48" s="33"/>
       <c r="E48" s="12">
@@ -3545,7 +3566,7 @@
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="33" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E49" s="12">
         <v>1</v>
@@ -3584,7 +3605,7 @@
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="33" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -3620,7 +3641,7 @@
     <row r="51" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="12">
@@ -3659,7 +3680,7 @@
     <row r="52" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32"/>
       <c r="C52" s="32" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="12">
@@ -3698,7 +3719,7 @@
     <row r="53" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
       <c r="C53" s="32" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="12">
@@ -3739,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="33"/>
@@ -3777,7 +3798,7 @@
     <row r="55" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31"/>
       <c r="C55" s="32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="12">
@@ -3812,7 +3833,7 @@
       <c r="AF55" s="18"/>
       <c r="AG55" s="18"/>
       <c r="AI55" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,30 +3841,30 @@
         <v>8</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="33"/>
       <c r="E56" s="10">
         <f>SUM(E57:E95)</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="7"/>
       <c r="J56" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
@@ -3867,13 +3888,13 @@
       <c r="AF56" s="18"/>
       <c r="AG56" s="18"/>
       <c r="AI56" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="32"/>
       <c r="C57" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="12">
@@ -3913,7 +3934,7 @@
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
       <c r="D58" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -3945,13 +3966,13 @@
       <c r="AF58" s="18"/>
       <c r="AG58" s="18"/>
       <c r="AI58" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
       <c r="C59" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="33"/>
       <c r="E59" s="12">
@@ -3991,7 +4012,7 @@
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -4027,7 +4048,7 @@
     <row r="61" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="12">
@@ -4067,7 +4088,7 @@
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
       <c r="D62" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -4103,7 +4124,7 @@
     <row r="63" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B63" s="32"/>
       <c r="C63" s="32" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D63" s="33"/>
       <c r="E63" s="12">
@@ -4143,7 +4164,7 @@
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
       <c r="D64" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -4179,7 +4200,7 @@
     <row r="65" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
       <c r="C65" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="12">
@@ -4214,14 +4235,14 @@
       <c r="AF65" s="18"/>
       <c r="AG65" s="18"/>
       <c r="AI65" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
       <c r="D66" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -4258,7 +4279,7 @@
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
       <c r="D67" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -4295,7 +4316,7 @@
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -4332,7 +4353,7 @@
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -4369,7 +4390,7 @@
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
       <c r="D70" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -4401,14 +4422,14 @@
       <c r="AF70" s="18"/>
       <c r="AG70" s="18"/>
       <c r="AI70" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
       <c r="D71" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -4445,7 +4466,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -4482,7 +4503,7 @@
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
       <c r="D73" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -4518,7 +4539,7 @@
     <row r="74" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D74" s="33"/>
       <c r="E74" s="12">
@@ -4553,14 +4574,14 @@
       <c r="AF74" s="18"/>
       <c r="AG74" s="18"/>
       <c r="AI74" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
       <c r="D75" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -4596,7 +4617,7 @@
     <row r="76" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B76" s="32"/>
       <c r="C76" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="33"/>
       <c r="E76" s="12">
@@ -4636,7 +4657,7 @@
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
       <c r="D77" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -4673,7 +4694,7 @@
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
       <c r="D78" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -4709,7 +4730,7 @@
     <row r="79" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
       <c r="C79" s="32" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="12">
@@ -4749,7 +4770,7 @@
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
       <c r="D80" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -4785,7 +4806,7 @@
     <row r="81" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B81" s="32"/>
       <c r="C81" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D81" s="33"/>
       <c r="E81" s="12">
@@ -4824,12 +4845,10 @@
     <row r="82" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
       <c r="C82" s="32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D82" s="33"/>
-      <c r="E82" s="12">
-        <v>2</v>
-      </c>
+      <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -4863,7 +4882,7 @@
     <row r="83" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D83" s="33"/>
       <c r="E83" s="12">
@@ -4902,7 +4921,7 @@
     <row r="84" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
       <c r="C84" s="32" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D84" s="33"/>
       <c r="E84" s="12">
@@ -4941,7 +4960,7 @@
     <row r="85" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="12">
@@ -4979,9 +4998,13 @@
     </row>
     <row r="86" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
+      <c r="C86" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="12"/>
+      <c r="E86" s="12">
+        <v>2</v>
+      </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -5014,7 +5037,9 @@
     </row>
     <row r="87" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="C87" s="32" t="s">
+        <v>261</v>
+      </c>
       <c r="D87" s="33"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -5049,9 +5074,13 @@
     </row>
     <row r="88" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
+      <c r="C88" s="32" t="s">
+        <v>262</v>
+      </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="12"/>
+      <c r="E88" s="12">
+        <v>2</v>
+      </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -5084,9 +5113,13 @@
     </row>
     <row r="89" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
+      <c r="C89" s="32" t="s">
+        <v>263</v>
+      </c>
       <c r="D89" s="33"/>
-      <c r="E89" s="12"/>
+      <c r="E89" s="12">
+        <v>1</v>
+      </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -5119,9 +5152,13 @@
     </row>
     <row r="90" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
+      <c r="C90" s="32" t="s">
+        <v>264</v>
+      </c>
       <c r="D90" s="33"/>
-      <c r="E90" s="12"/>
+      <c r="E90" s="12">
+        <v>1</v>
+      </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -5154,9 +5191,13 @@
     </row>
     <row r="91" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
+      <c r="C91" s="32" t="s">
+        <v>265</v>
+      </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="12"/>
+      <c r="E91" s="12">
+        <v>2</v>
+      </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -5185,13 +5226,19 @@
       <c r="AE91" s="18"/>
       <c r="AF91" s="18"/>
       <c r="AG91" s="18"/>
-      <c r="AI91" s="23"/>
+      <c r="AI91" s="23" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="92" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
+      <c r="C92" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="D92" s="33"/>
-      <c r="E92" s="12"/>
+      <c r="E92" s="12">
+        <v>2</v>
+      </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -5220,12 +5267,14 @@
       <c r="AE92" s="18"/>
       <c r="AF92" s="18"/>
       <c r="AG92" s="18"/>
-      <c r="AI92" s="23"/>
+      <c r="AI92" s="23" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="93" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="32"/>
       <c r="C93" s="32" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="12">
@@ -5264,7 +5313,7 @@
     <row r="94" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="32"/>
       <c r="C94" s="32" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="D94" s="33"/>
       <c r="E94" s="12">
@@ -5303,7 +5352,7 @@
     <row r="95" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
       <c r="C95" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="12">
@@ -5343,7 +5392,7 @@
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
       <c r="D96" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -5380,7 +5429,7 @@
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
       <c r="D97" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -5417,7 +5466,7 @@
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
       <c r="D98" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -5454,7 +5503,7 @@
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
       <c r="D99" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -5492,7 +5541,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="32"/>
       <c r="D100" s="33"/>
@@ -5501,21 +5550,21 @@
         <v>42</v>
       </c>
       <c r="F100" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G100" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="7"/>
       <c r="J100" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
@@ -5543,7 +5592,7 @@
     <row r="101" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
       <c r="C101" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="12">
@@ -5582,7 +5631,7 @@
     <row r="102" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="32"/>
       <c r="C102" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="12">
@@ -5622,7 +5671,7 @@
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
       <c r="D103" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -5659,7 +5708,7 @@
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
       <c r="D104" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -5695,7 +5744,7 @@
     <row r="105" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
       <c r="C105" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="12">
@@ -5734,7 +5783,7 @@
     <row r="106" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
       <c r="C106" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106" s="33"/>
       <c r="E106" s="12">
@@ -5773,7 +5822,7 @@
     <row r="107" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
       <c r="C107" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D107" s="33"/>
       <c r="E107" s="12">
@@ -5812,7 +5861,7 @@
     <row r="108" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
       <c r="C108" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108" s="33"/>
       <c r="E108" s="12">
@@ -5851,7 +5900,7 @@
     <row r="109" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
       <c r="C109" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="33"/>
       <c r="E109" s="12">
@@ -5890,7 +5939,7 @@
     <row r="110" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
       <c r="C110" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D110" s="33"/>
       <c r="E110" s="12">
@@ -5925,13 +5974,13 @@
       <c r="AF110" s="18"/>
       <c r="AG110" s="18"/>
       <c r="AI110" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="32"/>
       <c r="C111" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D111" s="33"/>
       <c r="E111" s="12">
@@ -5966,13 +6015,13 @@
       <c r="AF111" s="18"/>
       <c r="AG111" s="18"/>
       <c r="AI111" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="32"/>
       <c r="C112" s="32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D112" s="33"/>
       <c r="E112" s="12">
@@ -6007,7 +6056,7 @@
       <c r="AF112" s="18"/>
       <c r="AG112" s="18"/>
       <c r="AI112" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -6015,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" s="32"/>
       <c r="D113" s="33"/>
@@ -6024,19 +6073,19 @@
         <v>13</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="7"/>
       <c r="J113" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K113" s="18"/>
       <c r="L113" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
@@ -6064,7 +6113,7 @@
     <row r="114" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
       <c r="C114" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D114" s="33"/>
       <c r="E114" s="12">
@@ -6142,7 +6191,7 @@
     <row r="116" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
       <c r="C116" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D116" s="33"/>
       <c r="E116" s="12">
@@ -6181,7 +6230,7 @@
     <row r="117" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
       <c r="C117" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D117" s="33"/>
       <c r="E117" s="12"/>
@@ -6218,7 +6267,7 @@
     <row r="118" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="32"/>
       <c r="C118" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D118" s="33"/>
       <c r="E118" s="12">
@@ -6257,7 +6306,7 @@
     <row r="119" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="32"/>
       <c r="C119" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="12">
@@ -6292,13 +6341,13 @@
       <c r="AF119" s="18"/>
       <c r="AG119" s="18"/>
       <c r="AI119" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
       <c r="C120" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120" s="33"/>
       <c r="E120" s="12">
@@ -6338,7 +6387,7 @@
       <c r="B121" s="32"/>
       <c r="C121" s="32"/>
       <c r="D121" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -6375,7 +6424,7 @@
       <c r="B122" s="32"/>
       <c r="C122" s="32"/>
       <c r="D122" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -6412,7 +6461,7 @@
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
       <c r="D123" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -6449,7 +6498,7 @@
       <c r="B124" s="32"/>
       <c r="C124" s="32"/>
       <c r="D124" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -6486,7 +6535,7 @@
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
       <c r="D125" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -6523,7 +6572,7 @@
       <c r="B126" s="32"/>
       <c r="C126" s="32"/>
       <c r="D126" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -6561,7 +6610,7 @@
         <v>11</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C127" s="32"/>
       <c r="D127" s="33"/>
@@ -6570,21 +6619,21 @@
         <v>28</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H127" s="12"/>
       <c r="I127" s="7"/>
       <c r="J127" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L127" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
@@ -6612,7 +6661,7 @@
     <row r="128" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
       <c r="C128" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D128" s="33"/>
       <c r="E128" s="12">
@@ -6651,7 +6700,7 @@
     <row r="129" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
       <c r="C129" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D129" s="33"/>
       <c r="E129" s="12">
@@ -6690,7 +6739,7 @@
     <row r="130" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
       <c r="C130" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D130" s="33"/>
       <c r="E130" s="12">
@@ -6729,7 +6778,7 @@
     <row r="131" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
       <c r="C131" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D131" s="33"/>
       <c r="E131" s="12">
@@ -6768,7 +6817,7 @@
     <row r="132" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
       <c r="C132" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D132" s="33"/>
       <c r="E132" s="12">
@@ -6807,7 +6856,7 @@
     <row r="133" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
       <c r="C133" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D133" s="33"/>
       <c r="E133" s="12">
@@ -6846,7 +6895,7 @@
     <row r="134" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B134" s="32"/>
       <c r="C134" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D134" s="33"/>
       <c r="E134" s="12">
@@ -6887,7 +6936,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C135" s="32"/>
       <c r="D135" s="33"/>
@@ -6896,17 +6945,17 @@
         <v>16</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="7"/>
       <c r="J135" s="18"/>
       <c r="K135" s="18"/>
       <c r="L135" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
@@ -6934,7 +6983,7 @@
     <row r="136" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B136" s="32"/>
       <c r="C136" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D136" s="33"/>
       <c r="E136" s="12">
@@ -6973,7 +7022,7 @@
     <row r="137" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B137" s="32"/>
       <c r="C137" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D137" s="38"/>
       <c r="E137" s="12">
@@ -7012,7 +7061,7 @@
     <row r="138" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B138" s="32"/>
       <c r="C138" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D138" s="33"/>
       <c r="E138" s="12">
@@ -7051,7 +7100,7 @@
     <row r="139" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B139" s="32"/>
       <c r="C139" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D139" s="38"/>
       <c r="E139" s="12">
@@ -7090,7 +7139,7 @@
     <row r="140" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B140" s="32"/>
       <c r="C140" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D140" s="33"/>
       <c r="E140" s="12">
@@ -7129,7 +7178,7 @@
     <row r="141" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B141" s="32"/>
       <c r="C141" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D141" s="33"/>
       <c r="E141" s="12">
@@ -7168,14 +7217,14 @@
     <row r="142" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B142" s="32"/>
       <c r="C142" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142" s="33"/>
       <c r="E142" s="12">
         <v>1</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -7209,7 +7258,7 @@
     <row r="143" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B143" s="32"/>
       <c r="C143" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D143" s="33"/>
       <c r="E143" s="12">
@@ -7248,7 +7297,7 @@
     <row r="144" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B144" s="32"/>
       <c r="C144" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144" s="33"/>
       <c r="E144" s="12">
@@ -7287,7 +7336,7 @@
     <row r="145" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B145" s="32"/>
       <c r="C145" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D145" s="33"/>
       <c r="E145" s="12">
@@ -7326,7 +7375,7 @@
     <row r="146" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B146" s="32"/>
       <c r="C146" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D146" s="33"/>
       <c r="E146" s="12">
@@ -7365,7 +7414,7 @@
     <row r="147" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B147" s="32"/>
       <c r="C147" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="33"/>
       <c r="E147" s="12">
@@ -7404,7 +7453,7 @@
     <row r="148" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
       <c r="C148" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D148" s="33"/>
       <c r="E148" s="12">
@@ -7445,7 +7494,7 @@
         <v>13</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C149" s="32"/>
       <c r="D149" s="33"/>
@@ -7453,16 +7502,16 @@
         <v>2</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="7"/>
       <c r="J149" s="18"/>
       <c r="K149" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
@@ -7493,7 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C150" s="32"/>
       <c r="D150" s="33"/>
@@ -7502,15 +7551,15 @@
         <v>8</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="7"/>
       <c r="J150" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K150" s="18"/>
       <c r="L150" s="18"/>
@@ -7540,7 +7589,7 @@
     <row r="151" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B151" s="31"/>
       <c r="C151" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D151" s="33"/>
       <c r="E151" s="12">
@@ -7575,13 +7624,13 @@
       <c r="AF151" s="18"/>
       <c r="AG151" s="18"/>
       <c r="AI151" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B152" s="31"/>
       <c r="C152" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D152" s="33"/>
       <c r="E152" s="12">
@@ -7620,7 +7669,7 @@
     <row r="153" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B153" s="31"/>
       <c r="C153" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D153" s="33"/>
       <c r="E153" s="12">
@@ -7659,7 +7708,7 @@
     <row r="154" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B154" s="31"/>
       <c r="C154" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D154" s="33"/>
       <c r="E154" s="12">
@@ -7698,7 +7747,7 @@
     <row r="155" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
       <c r="C155" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D155" s="33"/>
       <c r="E155" s="12">
@@ -7733,7 +7782,7 @@
       <c r="AF155" s="18"/>
       <c r="AG155" s="18"/>
       <c r="AI155" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -7741,7 +7790,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C156" s="32"/>
       <c r="D156" s="33"/>
@@ -7750,17 +7799,17 @@
         <v>5</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="7"/>
       <c r="J156" s="18"/>
       <c r="K156" s="18"/>
       <c r="L156" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
@@ -7788,7 +7837,7 @@
     <row r="157" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B157" s="31"/>
       <c r="C157" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D157" s="33"/>
       <c r="E157" s="12">
@@ -7827,7 +7876,7 @@
     <row r="158" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B158" s="31"/>
       <c r="C158" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D158" s="33"/>
       <c r="E158" s="12">
@@ -7868,7 +7917,7 @@
         <v>16</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159" s="32"/>
       <c r="D159" s="33"/>
@@ -7876,15 +7925,15 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="7"/>
       <c r="J159" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K159" s="18"/>
       <c r="L159" s="18"/>
@@ -7910,7 +7959,7 @@
       <c r="AF159" s="18"/>
       <c r="AG159" s="18"/>
       <c r="AI159" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7918,7 +7967,7 @@
         <v>17</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C160" s="32"/>
       <c r="D160" s="33"/>
@@ -7926,17 +7975,17 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H160" s="12"/>
       <c r="I160" s="7"/>
       <c r="J160" s="18"/>
       <c r="K160" s="18"/>
       <c r="L160" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
@@ -7960,13 +8009,13 @@
       <c r="AF160" s="18"/>
       <c r="AG160" s="18"/>
       <c r="AI160" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B161" s="31"/>
       <c r="C161" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D161" s="33"/>
       <c r="E161" s="12"/>
@@ -8003,7 +8052,7 @@
     <row r="162" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B162" s="31"/>
       <c r="C162" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D162" s="33"/>
       <c r="E162" s="12"/>
@@ -8042,7 +8091,7 @@
         <v>18</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C163" s="32"/>
       <c r="D163" s="33"/>
@@ -8051,17 +8100,17 @@
         <v>27</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H163" s="12"/>
       <c r="I163" s="7"/>
       <c r="J163" s="18"/>
       <c r="K163" s="18"/>
       <c r="L163" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
@@ -8085,13 +8134,13 @@
       <c r="AF163" s="18"/>
       <c r="AG163" s="18"/>
       <c r="AI163" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B164" s="32"/>
       <c r="C164" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D164" s="33"/>
       <c r="E164" s="12">
@@ -8126,13 +8175,13 @@
       <c r="AF164" s="18"/>
       <c r="AG164" s="18"/>
       <c r="AI164" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B165" s="32"/>
       <c r="C165" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D165" s="33"/>
       <c r="E165" s="12">
@@ -8171,7 +8220,7 @@
     <row r="166" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B166" s="32"/>
       <c r="C166" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D166" s="33"/>
       <c r="E166" s="12">
@@ -8210,7 +8259,7 @@
     <row r="167" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B167" s="32"/>
       <c r="C167" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D167" s="33"/>
       <c r="E167" s="12">
@@ -8249,7 +8298,7 @@
     <row r="168" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B168" s="32"/>
       <c r="C168" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D168" s="33"/>
       <c r="E168" s="12">
@@ -8288,7 +8337,7 @@
     <row r="169" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B169" s="32"/>
       <c r="C169" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" s="33"/>
       <c r="E169" s="12">
@@ -8327,7 +8376,7 @@
     <row r="170" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B170" s="32"/>
       <c r="C170" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D170" s="33"/>
       <c r="E170" s="12">
@@ -8368,7 +8417,7 @@
         <v>19</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C171" s="32"/>
       <c r="D171" s="33"/>
@@ -8376,21 +8425,21 @@
         <v>2</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H171" s="12"/>
       <c r="I171" s="7"/>
       <c r="J171" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K171" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L171" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M171" s="18"/>
       <c r="N171" s="18"/>
@@ -8414,7 +8463,7 @@
       <c r="AF171" s="18"/>
       <c r="AG171" s="18"/>
       <c r="AI171" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8422,7 +8471,7 @@
         <v>20</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C172" s="32"/>
       <c r="D172" s="33"/>
@@ -8430,19 +8479,19 @@
         <v>4</v>
       </c>
       <c r="F172" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G172" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="G172" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="H172" s="12"/>
       <c r="I172" s="7"/>
       <c r="J172" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K172" s="18"/>
       <c r="L172" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M172" s="18"/>
       <c r="N172" s="18"/>
@@ -8470,7 +8519,7 @@
     <row r="173" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B173" s="31"/>
       <c r="C173" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D173" s="33"/>
       <c r="E173" s="12"/>
@@ -8507,7 +8556,7 @@
     <row r="174" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C174" s="31"/>
       <c r="D174" s="37"/>
@@ -8515,17 +8564,17 @@
         <v>0</v>
       </c>
       <c r="F174" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G174" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="G174" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="H174" s="12"/>
       <c r="I174" s="6"/>
       <c r="J174" s="19"/>
       <c r="K174" s="19"/>
       <c r="L174" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M174" s="19"/>
       <c r="N174" s="19"/>
@@ -8554,7 +8603,7 @@
     <row r="175" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B175" s="32"/>
       <c r="C175" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D175" s="33"/>
       <c r="E175" s="8"/>
@@ -8591,7 +8640,7 @@
     <row r="176" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B176" s="32"/>
       <c r="C176" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D176" s="33"/>
       <c r="E176" s="8"/>
@@ -8624,13 +8673,13 @@
       <c r="AF176" s="18"/>
       <c r="AG176" s="18"/>
       <c r="AI176" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B177" s="32"/>
       <c r="C177" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D177" s="33"/>
       <c r="E177" s="8"/>
@@ -8667,7 +8716,7 @@
     <row r="178" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B178" s="32"/>
       <c r="C178" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D178" s="33"/>
       <c r="E178" s="8"/>
@@ -8704,71 +8753,71 @@
     <row r="179" spans="2:35" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E179" s="14">
         <f>(SUM(E3:E174))/2</f>
-        <v>272.5</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="180" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B180" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B181" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D181" s="30" t="s">
         <v>65</v>
-      </c>
-      <c r="D181" s="30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="182" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B182" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="D182" s="30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="183" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B183" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B185" s="40"/>
       <c r="D185" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B186" s="41"/>
       <c r="D186" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B187" s="42"/>
       <c r="D187" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B188" s="43"/>
       <c r="D188" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B190" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8819,16 +8868,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>200</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8838,12 +8887,12 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3" s="27">
         <v>56</v>
@@ -8853,12 +8902,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
